--- a/study/analyzer/graphs.xlsx
+++ b/study/analyzer/graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idris\Documents\Maison\Marwan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zestones\Documents\Github\el-khey\Huffman\study\analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2F45A48E-0D68-4DE9-B8FA-177F119C92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EFD29A-EBC5-4D97-A26B-98C1868A69A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="graph" sheetId="1" r:id="rId1"/>
@@ -45,15 +45,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - all_data" description="Connexion à la requête « all_data » dans le classeur." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - all_data" description="Connexion à la requête « all_data » dans le classeur." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=all_data;Extended Properties=&quot;&quot;" command="SELECT * FROM [all_data]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="334">
   <si>
     <t>compressed</t>
   </si>
@@ -1052,12 +1052,15 @@
   </si>
   <si>
     <t>Efficiency 50000000 - 94</t>
+  </si>
+  <si>
+    <t>puissance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -1107,13 +1110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1122,6 +1123,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1137,21 +1153,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1245,7 +1246,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>zipf</c:v>
+            <c:v>puissance</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2089,7 +2090,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.85513310836145484"/>
           <c:y val="0.12547788726372042"/>
-          <c:w val="9.8857938072534346E-2"/>
+          <c:w val="0.11929188593941925"/>
           <c:h val="0.25648887631461409"/>
         </c:manualLayout>
       </c:layout>
@@ -2280,7 +2281,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>zipf</c:v>
+                  <c:v>puissance</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>uniform</c:v>
@@ -2626,7 +2627,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>zipf</c:v>
+            <c:v>puissance</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3476,7 +3477,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.85513310836145484"/>
           <c:y val="0.12547788726372042"/>
-          <c:w val="9.8857938072534346E-2"/>
+          <c:w val="0.12610320189504753"/>
           <c:h val="0.25648887631461409"/>
         </c:manualLayout>
       </c:layout>
@@ -3632,7 +3633,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>zipf</c:v>
+            <c:v>puissance</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4114,7 +4115,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4377,6 +4377,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86423429214205372"/>
+          <c:y val="0.38209241701930113"/>
+          <c:w val="0.11365686432053136"/>
+          <c:h val="0.23915983716321174"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6815,7 +6825,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10">
     <queryTableFields count="9">
       <queryTableField id="1" name="compressed" tableColumnId="1"/>
@@ -6833,8 +6843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="all_data" displayName="all_data" ref="B2:J82" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B2:J82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="all_data" displayName="all_data" ref="B2:J82" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B2:J82" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="zipf"/>
@@ -6845,15 +6855,15 @@
     <sortCondition ref="H2:H82"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="1" name="compressed" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" uniqueName="2" name="original" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" uniqueName="3" name="octets" queryTableFieldId="3"/>
-    <tableColumn id="4" uniqueName="4" name="compressed_size" queryTableFieldId="4"/>
-    <tableColumn id="5" uniqueName="5" name="original_size" queryTableFieldId="5"/>
-    <tableColumn id="6" uniqueName="6" name="num_chars" queryTableFieldId="6"/>
-    <tableColumn id="7" uniqueName="7" name="type" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" uniqueName="8" name="compression_ratio" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" uniqueName="9" name="compression_efficiency" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="compressed" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="original" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="octets" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="compressed_size" queryTableFieldId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="original_size" queryTableFieldId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="num_chars" queryTableFieldId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="type" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="compression_ratio" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="compression_efficiency" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7175,11 +7185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7190,11 +7200,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E89" sqref="E89:E90"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7213,40 +7223,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>124</v>
       </c>
       <c r="D3">
@@ -7261,21 +7271,21 @@
       <c r="G3">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>132</v>
       </c>
       <c r="D4">
@@ -7290,21 +7300,21 @@
       <c r="G4">
         <v>94</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>96</v>
       </c>
       <c r="D5">
@@ -7319,21 +7329,21 @@
       <c r="G5">
         <v>94</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>97</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>112</v>
       </c>
       <c r="D6">
@@ -7348,21 +7358,21 @@
       <c r="G6">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>136</v>
       </c>
       <c r="D7">
@@ -7377,21 +7387,21 @@
       <c r="G7">
         <v>94</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>137</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>120</v>
       </c>
       <c r="D8">
@@ -7406,21 +7416,21 @@
       <c r="G8">
         <v>94</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>104</v>
       </c>
       <c r="D9">
@@ -7435,21 +7445,21 @@
       <c r="G9">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
       <c r="D10">
@@ -7464,21 +7474,21 @@
       <c r="G10">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
       <c r="D11">
@@ -7493,21 +7503,21 @@
       <c r="G11">
         <v>94</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>88</v>
       </c>
       <c r="D12">
@@ -7522,21 +7532,21 @@
       <c r="G12">
         <v>94</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>116</v>
       </c>
       <c r="D13">
@@ -7551,21 +7561,21 @@
       <c r="G13">
         <v>64</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14">
@@ -7580,21 +7590,21 @@
       <c r="G14">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>81</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>128</v>
       </c>
       <c r="D15">
@@ -7609,21 +7619,21 @@
       <c r="G15">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>84</v>
       </c>
       <c r="D16">
@@ -7638,21 +7648,21 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>75</v>
       </c>
       <c r="D17">
@@ -7667,21 +7677,21 @@
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>100</v>
       </c>
       <c r="D18">
@@ -7696,21 +7706,21 @@
       <c r="G18">
         <v>4</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19">
@@ -7725,21 +7735,21 @@
       <c r="G19">
         <v>94</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20">
@@ -7754,21 +7764,21 @@
       <c r="G20">
         <v>94</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
       <c r="D21">
@@ -7783,21 +7793,21 @@
       <c r="G21">
         <v>94</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22">
@@ -7812,21 +7822,21 @@
       <c r="G22">
         <v>94</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23">
@@ -7841,21 +7851,21 @@
       <c r="G23">
         <v>94</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>43</v>
       </c>
       <c r="D24">
@@ -7870,21 +7880,21 @@
       <c r="G24">
         <v>94</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
       <c r="D25">
@@ -7899,21 +7909,21 @@
       <c r="G25">
         <v>94</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26">
@@ -7928,21 +7938,21 @@
       <c r="G26">
         <v>94</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27">
@@ -7957,21 +7967,21 @@
       <c r="G27">
         <v>94</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>51</v>
       </c>
       <c r="D28">
@@ -7986,21 +7996,21 @@
       <c r="G28">
         <v>64</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>67</v>
       </c>
       <c r="D29">
@@ -8015,21 +8025,21 @@
       <c r="G29">
         <v>94</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>71</v>
       </c>
       <c r="D30">
@@ -8044,21 +8054,21 @@
       <c r="G30">
         <v>32</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31">
@@ -8073,21 +8083,21 @@
       <c r="G31">
         <v>16</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>11</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>59</v>
       </c>
       <c r="D32">
@@ -8102,21 +8112,21 @@
       <c r="G32">
         <v>8</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>11</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>60</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33">
@@ -8131,21 +8141,21 @@
       <c r="G33">
         <v>4</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34">
@@ -8160,21 +8170,21 @@
       <c r="G34">
         <v>2</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>11</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>277</v>
       </c>
       <c r="D35">
@@ -8189,21 +8199,21 @@
       <c r="G35">
         <v>94</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>271</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>278</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>324</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>325</v>
       </c>
       <c r="D36">
@@ -8218,21 +8228,21 @@
       <c r="G36">
         <v>94</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>271</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>326</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>328</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>329</v>
       </c>
       <c r="D37">
@@ -8247,21 +8257,21 @@
       <c r="G37">
         <v>94</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
         <v>271</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>330</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>269</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>270</v>
       </c>
       <c r="D38">
@@ -8276,21 +8286,21 @@
       <c r="G38">
         <v>94</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>271</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>272</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>308</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>309</v>
       </c>
       <c r="D39">
@@ -8305,21 +8315,21 @@
       <c r="G39">
         <v>94</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>271</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>310</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>312</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>313</v>
       </c>
       <c r="D40">
@@ -8334,21 +8344,21 @@
       <c r="G40">
         <v>94</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>271</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>314</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>317</v>
       </c>
       <c r="D41">
@@ -8363,21 +8373,21 @@
       <c r="G41">
         <v>94</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>271</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>318</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>296</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>297</v>
       </c>
       <c r="D42">
@@ -8392,21 +8402,21 @@
       <c r="G42">
         <v>94</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>271</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>298</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>304</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>305</v>
       </c>
       <c r="D43">
@@ -8421,21 +8431,21 @@
       <c r="G43">
         <v>94</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>271</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>280</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>281</v>
       </c>
       <c r="D44">
@@ -8450,21 +8460,21 @@
       <c r="G44">
         <v>94</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>271</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>282</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>301</v>
       </c>
       <c r="D45">
@@ -8479,21 +8489,21 @@
       <c r="G45">
         <v>64</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" t="s">
         <v>271</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>302</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>292</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>293</v>
       </c>
       <c r="D46">
@@ -8508,21 +8518,21 @@
       <c r="G46">
         <v>32</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>271</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>294</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>320</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>321</v>
       </c>
       <c r="D47">
@@ -8537,21 +8547,21 @@
       <c r="G47">
         <v>16</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" t="s">
         <v>271</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>322</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>284</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>285</v>
       </c>
       <c r="D48">
@@ -8566,21 +8576,21 @@
       <c r="G48">
         <v>8</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>271</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>286</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>288</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>289</v>
       </c>
       <c r="D49">
@@ -8595,21 +8605,21 @@
       <c r="G49">
         <v>4</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>271</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>290</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>274</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>275</v>
       </c>
       <c r="D50">
@@ -8624,21 +8634,21 @@
       <c r="G50">
         <v>2</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>271</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>77</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>257</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>258</v>
       </c>
       <c r="D51">
@@ -8653,21 +8663,21 @@
       <c r="G51">
         <v>94</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" t="s">
         <v>206</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>259</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>225</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>226</v>
       </c>
       <c r="D52">
@@ -8682,21 +8692,21 @@
       <c r="G52">
         <v>94</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" t="s">
         <v>206</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" t="s">
         <v>227</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>242</v>
       </c>
       <c r="D53">
@@ -8711,21 +8721,21 @@
       <c r="G53">
         <v>94</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" t="s">
         <v>206</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>243</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>253</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>254</v>
       </c>
       <c r="D54">
@@ -8740,21 +8750,21 @@
       <c r="G54">
         <v>94</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" t="s">
         <v>206</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>255</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>210</v>
       </c>
       <c r="D55">
@@ -8769,21 +8779,21 @@
       <c r="G55">
         <v>94</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" t="s">
         <v>206</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>211</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>250</v>
       </c>
       <c r="D56">
@@ -8798,21 +8808,21 @@
       <c r="G56">
         <v>94</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>206</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>251</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>204</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>205</v>
       </c>
       <c r="D57">
@@ -8827,21 +8837,21 @@
       <c r="G57">
         <v>94</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" t="s">
         <v>206</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" t="s">
         <v>207</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>217</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>218</v>
       </c>
       <c r="D58">
@@ -8856,21 +8866,21 @@
       <c r="G58">
         <v>94</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" t="s">
         <v>206</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>219</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>234</v>
       </c>
       <c r="D59">
@@ -8885,21 +8895,21 @@
       <c r="G59">
         <v>94</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>206</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>235</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>229</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>230</v>
       </c>
       <c r="D60">
@@ -8914,21 +8924,21 @@
       <c r="G60">
         <v>94</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>206</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>231</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>214</v>
       </c>
       <c r="D61">
@@ -8943,21 +8953,21 @@
       <c r="G61">
         <v>8</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" t="s">
         <v>206</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>215</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>221</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>222</v>
       </c>
       <c r="D62">
@@ -8972,21 +8982,21 @@
       <c r="G62">
         <v>2</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" t="s">
         <v>206</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>223</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="63" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>237</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>238</v>
       </c>
       <c r="D63">
@@ -9001,21 +9011,21 @@
       <c r="G63">
         <v>4</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" t="s">
         <v>206</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>239</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="64" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>245</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>246</v>
       </c>
       <c r="D64">
@@ -9030,21 +9040,21 @@
       <c r="G64">
         <v>64</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" t="s">
         <v>206</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>247</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>262</v>
       </c>
       <c r="D65">
@@ -9059,21 +9069,21 @@
       <c r="G65">
         <v>32</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" t="s">
         <v>206</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>265</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>266</v>
       </c>
       <c r="D66">
@@ -9088,21 +9098,21 @@
       <c r="G66">
         <v>16</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" t="s">
         <v>206</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>267</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>165</v>
       </c>
       <c r="D67">
@@ -9117,21 +9127,21 @@
       <c r="G67">
         <v>94</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>166</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>161</v>
       </c>
       <c r="D68">
@@ -9146,21 +9156,21 @@
       <c r="G68">
         <v>94</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" t="s">
         <v>141</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>162</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>157</v>
       </c>
       <c r="D69">
@@ -9175,21 +9185,21 @@
       <c r="G69">
         <v>94</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" t="s">
         <v>141</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>158</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>201</v>
       </c>
       <c r="D70">
@@ -9204,21 +9214,21 @@
       <c r="G70">
         <v>94</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" t="s">
         <v>141</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>202</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>169</v>
       </c>
       <c r="D71">
@@ -9233,21 +9243,21 @@
       <c r="G71">
         <v>94</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" t="s">
         <v>141</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" t="s">
         <v>170</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>173</v>
       </c>
       <c r="D72">
@@ -9262,21 +9272,21 @@
       <c r="G72">
         <v>94</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>174</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>181</v>
       </c>
       <c r="D73">
@@ -9291,21 +9301,21 @@
       <c r="G73">
         <v>94</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" t="s">
         <v>141</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>182</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>149</v>
       </c>
       <c r="D74">
@@ -9320,21 +9330,21 @@
       <c r="G74">
         <v>94</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" t="s">
         <v>141</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>150</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>189</v>
       </c>
       <c r="D75">
@@ -9349,21 +9359,21 @@
       <c r="G75">
         <v>94</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" t="s">
         <v>141</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>190</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>153</v>
       </c>
       <c r="D76">
@@ -9378,21 +9388,21 @@
       <c r="G76">
         <v>94</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" t="s">
         <v>141</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" t="s">
         <v>154</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>193</v>
       </c>
       <c r="D77">
@@ -9407,21 +9417,21 @@
       <c r="G77">
         <v>64</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" t="s">
         <v>141</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" t="s">
         <v>194</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>176</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>177</v>
       </c>
       <c r="D78">
@@ -9436,21 +9446,21 @@
       <c r="G78">
         <v>32</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" t="s">
         <v>141</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" t="s">
         <v>178</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>196</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>197</v>
       </c>
       <c r="D79">
@@ -9465,21 +9475,21 @@
       <c r="G79">
         <v>16</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" t="s">
         <v>141</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" t="s">
         <v>198</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>184</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>185</v>
       </c>
       <c r="D80">
@@ -9494,21 +9504,21 @@
       <c r="G80">
         <v>8</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" t="s">
         <v>141</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" t="s">
         <v>186</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>145</v>
       </c>
       <c r="D81">
@@ -9523,21 +9533,21 @@
       <c r="G81">
         <v>4</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" t="s">
         <v>141</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>146</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>140</v>
       </c>
       <c r="D82">
@@ -9552,19 +9562,19 @@
       <c r="G82">
         <v>2</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" t="s">
         <v>141</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" t="s">
         <v>142</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
       <c r="D89" t="s">
         <v>206</v>
@@ -9583,7 +9593,7 @@
       <c r="B90" t="s">
         <v>332</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <f>zipf!J12</f>
         <v>54.6740290196649</v>
       </c>
@@ -9603,15 +9613,6 @@
         <f>linear!J12</f>
         <v>21.093466249727499</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H94" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9622,11 +9623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="B12:J12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9641,39 +9642,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>165</v>
       </c>
       <c r="D3">
@@ -9688,21 +9689,21 @@
       <c r="G3">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3">
         <v>1.45205479452054</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-45.205479452054703</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>161</v>
       </c>
       <c r="D4">
@@ -9717,21 +9718,21 @@
       <c r="G4">
         <v>94</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I4">
         <v>0.818622500504948</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>18.1377499495051</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>157</v>
       </c>
       <c r="D5">
@@ -9746,21 +9747,21 @@
       <c r="G5">
         <v>94</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5">
         <v>0.63659198231688896</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>36.340801768311003</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>201</v>
       </c>
       <c r="D6">
@@ -9775,21 +9776,21 @@
       <c r="G6">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6">
         <v>0.49062118391287801</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>50.937881608712097</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>169</v>
       </c>
       <c r="D7">
@@ -9804,21 +9805,21 @@
       <c r="G7">
         <v>94</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7">
         <v>0.47215191139835699</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>52.784808860164198</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>173</v>
       </c>
       <c r="D8">
@@ -9833,21 +9834,21 @@
       <c r="G8">
         <v>94</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8">
         <v>0.457136799406341</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>54.286320059365799</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>181</v>
       </c>
       <c r="D9">
@@ -9862,21 +9863,21 @@
       <c r="G9">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9">
         <v>0.45520130486393801</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>54.479869513606097</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>149</v>
       </c>
       <c r="D10">
@@ -9891,21 +9892,21 @@
       <c r="G10">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10">
         <v>0.45362806410380202</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>54.637193589619699</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>189</v>
       </c>
       <c r="D11">
@@ -9920,21 +9921,21 @@
       <c r="G11">
         <v>94</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H11" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11">
         <v>0.453425040412681</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>54.657495958731801</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>153</v>
       </c>
       <c r="D12">
@@ -9949,50 +9950,50 @@
       <c r="G12">
         <v>94</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12">
         <v>0.45325970980335001</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>54.6740290196649</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>50000000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>21660621</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>49999971</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>64</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H13" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="2">
         <v>0.433212671263349</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>56.678732873664998</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>177</v>
       </c>
       <c r="D14">
@@ -10007,21 +10008,21 @@
       <c r="G14">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H14" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14">
         <v>0.39056649716994901</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>60.943350283005003</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>197</v>
       </c>
       <c r="D15">
@@ -10036,21 +10037,21 @@
       <c r="G15">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15">
         <v>0.33877272742818099</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>66.122727257181793</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>185</v>
       </c>
       <c r="D16">
@@ -10065,21 +10066,21 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16">
         <v>0.27608038208642999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>72.391961791356906</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>145</v>
       </c>
       <c r="D17">
@@ -10094,21 +10095,21 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H17" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17">
         <v>0.198944487957779</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>80.105551204221996</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>140</v>
       </c>
       <c r="D18">
@@ -10123,13 +10124,13 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="H18" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18">
         <v>0.12500216250004301</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>87.499783749995601</v>
       </c>
     </row>
@@ -10144,7 +10145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10161,39 +10162,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>257</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>258</v>
       </c>
       <c r="D3">
@@ -10208,21 +10209,21 @@
       <c r="G3">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>206</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>2.4989361702127599</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-149.89361702127599</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>226</v>
       </c>
       <c r="D4">
@@ -10237,21 +10238,21 @@
       <c r="G4">
         <v>94</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>1.1449217181854601</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>-14.4921718185467</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>242</v>
       </c>
       <c r="D5">
@@ -10266,21 +10267,21 @@
       <c r="G5">
         <v>94</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>206</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.99688879967884303</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>0.31112003211561601</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>254</v>
       </c>
       <c r="D6">
@@ -10295,21 +10296,21 @@
       <c r="G6">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.86316464318627995</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>13.6835356813719</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>210</v>
       </c>
       <c r="D7">
@@ -10324,21 +10325,21 @@
       <c r="G7">
         <v>94</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>206</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.84741098056483999</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>15.2589019435159</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>249</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>250</v>
       </c>
       <c r="D8">
@@ -10353,21 +10354,21 @@
       <c r="G8">
         <v>94</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.83331133271731594</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>16.668866728268299</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>205</v>
       </c>
       <c r="D9">
@@ -10382,21 +10383,21 @@
       <c r="G9">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.83164428604000895</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>16.835571395999001</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>218</v>
       </c>
       <c r="D10">
@@ -10411,21 +10412,21 @@
       <c r="G10">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>206</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.83015883746130403</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>16.984116253869502</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>234</v>
       </c>
       <c r="D11">
@@ -10440,21 +10441,21 @@
       <c r="G11">
         <v>94</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>206</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.82998253583932902</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>17.001746416067</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>230</v>
       </c>
       <c r="D12">
@@ -10469,50 +10470,50 @@
       <c r="G12">
         <v>94</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>206</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0.82982631410820695</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>17.017368589179199</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>50000000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>37501298</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>50000000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>64</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.75002595999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>24.997404</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>262</v>
       </c>
       <c r="D14">
@@ -10527,21 +10528,21 @@
       <c r="G14">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.62501379999999995</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>37.498620000000003</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>266</v>
       </c>
       <c r="D15">
@@ -10556,21 +10557,21 @@
       <c r="G15">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>206</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0.50000739999999999</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>49.99926</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>213</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>214</v>
       </c>
       <c r="D16">
@@ -10585,21 +10586,21 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>206</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0.37500432</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>62.499567999999996</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>238</v>
       </c>
       <c r="D17">
@@ -10614,21 +10615,21 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>0.25000296</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>74.999703999999994</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>222</v>
       </c>
       <c r="D18">
@@ -10643,13 +10644,13 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>206</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>0.12500222</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>87.499777999999907</v>
       </c>
     </row>
@@ -10659,7 +10660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10677,39 +10678,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>277</v>
       </c>
       <c r="D3">
@@ -10724,21 +10725,21 @@
       <c r="G3">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>271</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>2.3190376569037601</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-131.90376569037599</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>325</v>
       </c>
       <c r="D4">
@@ -10753,21 +10754,21 @@
       <c r="G4">
         <v>94</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>1.11247980613893</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>-11.247980613893301</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>329</v>
       </c>
       <c r="D5">
@@ -10782,21 +10783,21 @@
       <c r="G5">
         <v>94</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.95428514015874599</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>4.5714859841253901</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>270</v>
       </c>
       <c r="D6">
@@ -10811,21 +10812,21 @@
       <c r="G6">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.82042401553522404</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>17.957598446477501</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>308</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>309</v>
       </c>
       <c r="D7">
@@ -10840,21 +10841,21 @@
       <c r="G7">
         <v>94</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>271</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.80208489650549697</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>19.791510349450199</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>312</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>313</v>
       </c>
       <c r="D8">
@@ -10869,21 +10870,21 @@
       <c r="G8">
         <v>94</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>271</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.79466275167113998</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>20.533724832885898</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>316</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>317</v>
       </c>
       <c r="D9">
@@ -10898,21 +10899,21 @@
       <c r="G9">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.78713778261356504</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>21.286221738643398</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>297</v>
       </c>
       <c r="D10">
@@ -10927,21 +10928,21 @@
       <c r="G10">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>271</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.78769196184283297</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>21.230803815716602</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>304</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>305</v>
       </c>
       <c r="D11">
@@ -10956,21 +10957,21 @@
       <c r="G11">
         <v>94</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.79036001469206896</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>20.963998530792999</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>280</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>281</v>
       </c>
       <c r="D12">
@@ -10985,50 +10986,50 @@
       <c r="G12">
         <v>94</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0.793848694463825</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>20.615130553617401</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>50000000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>35764059</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>49999965</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>64</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.71528168069717601</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>28.471831930282299</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>292</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>293</v>
       </c>
       <c r="D14">
@@ -11043,21 +11044,21 @@
       <c r="G14">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>271</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.60018976406451896</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>39.981023593548002</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>321</v>
       </c>
       <c r="D15">
@@ -11072,21 +11073,21 @@
       <c r="G15">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0.46030292285452601</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>53.969707714547297</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>284</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>285</v>
       </c>
       <c r="D16">
@@ -11101,21 +11102,21 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0.34652214772177098</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>65.347785227822797</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>289</v>
       </c>
       <c r="D17">
@@ -11130,21 +11131,21 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>271</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>0.23636430945457201</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>76.363569054542694</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>275</v>
       </c>
       <c r="D18">
@@ -11159,13 +11160,13 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>271</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>0.12500220250004401</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>87.499779749995596</v>
       </c>
     </row>
@@ -11175,7 +11176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11193,39 +11194,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3">
@@ -11240,21 +11241,21 @@
       <c r="G3">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>1.98322851153039</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>-98.322851153039807</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>39</v>
       </c>
       <c r="D4">
@@ -11269,21 +11270,21 @@
       <c r="G4">
         <v>94</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>1.0503030303030301</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>-5.0303030303030303</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>63</v>
       </c>
       <c r="D5">
@@ -11298,21 +11299,21 @@
       <c r="G5">
         <v>94</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.90819606267577302</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>9.1803937324226599</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6">
@@ -11327,21 +11328,21 @@
       <c r="G6">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.77005005005005001</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>22.994994994994901</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7">
@@ -11356,21 +11357,21 @@
       <c r="G7">
         <v>94</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.75237104325903303</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>24.762895674096601</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8">
@@ -11385,21 +11386,21 @@
       <c r="G8">
         <v>94</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.73786693229004097</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>26.2133067709958</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9">
@@ -11414,21 +11415,21 @@
       <c r="G9">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.73600738432490997</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>26.399261567508901</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
@@ -11443,21 +11444,21 @@
       <c r="G10">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.73448263861944096</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>26.551736138055801</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11">
@@ -11472,21 +11473,21 @@
       <c r="G11">
         <v>94</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.734287124578198</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>26.571287542180201</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
       <c r="D12">
@@ -11501,50 +11502,50 @@
       <c r="G12">
         <v>94</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0.73412721793668501</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>26.587278206331401</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>50000000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>33241570</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>49999962</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>64</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.664831905272248</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>33.516809472775201</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>71</v>
       </c>
       <c r="D14">
@@ -11559,21 +11560,21 @@
       <c r="G14">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.53760147052841101</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>46.239852947158802</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
       <c r="D15">
@@ -11588,21 +11589,21 @@
       <c r="G15">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0.40934452549512401</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>59.0655474504875</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>59</v>
       </c>
       <c r="D16">
@@ -11617,21 +11618,21 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0.28032832242626499</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>71.967167757373403</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>35</v>
       </c>
       <c r="D17">
@@ -11646,21 +11647,21 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>0.18883710755348401</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>81.116289244651497</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18">
@@ -11675,13 +11676,13 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>0.12500220000000001</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>87.499780000000001</v>
       </c>
     </row>
@@ -11691,8 +11692,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -11713,39 +11714,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>124</v>
       </c>
       <c r="D3">
@@ -11760,21 +11761,21 @@
       <c r="G3">
         <v>94</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>2.3459119496855299</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-134.591194968553</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>132</v>
       </c>
       <c r="D4">
@@ -11789,21 +11790,21 @@
       <c r="G4">
         <v>94</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>1.1122551988693701</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>-11.225519886937199</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>96</v>
       </c>
       <c r="D5">
@@ -11818,21 +11819,21 @@
       <c r="G5">
         <v>94</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.95488797347533405</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>4.51120265246659</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>112</v>
       </c>
       <c r="D6">
@@ -11847,21 +11848,21 @@
       <c r="G6">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>0.82286995515695005</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>17.7130044843049</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>136</v>
       </c>
       <c r="D7">
@@ -11876,21 +11877,21 @@
       <c r="G7">
         <v>94</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>0.80643708980310502</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>19.356291019689401</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>120</v>
       </c>
       <c r="D8">
@@ -11905,21 +11906,21 @@
       <c r="G8">
         <v>94</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>0.79259601517760803</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>20.740398482239101</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>104</v>
       </c>
       <c r="D9">
@@ -11934,21 +11935,21 @@
       <c r="G9">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>0.79086133392803004</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>20.913866607196901</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>92</v>
       </c>
       <c r="D10">
@@ -11963,21 +11964,21 @@
       <c r="G10">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>0.78940222038087104</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>21.0597779619128</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>108</v>
       </c>
       <c r="D11">
@@ -11992,21 +11993,21 @@
       <c r="G11">
         <v>94</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0.78921900932934297</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>21.078099067065601</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>88</v>
       </c>
       <c r="D12">
@@ -12021,50 +12022,50 @@
       <c r="G12">
         <v>94</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0.78906533750272401</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>21.093466249727499</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>50000000</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>36010941</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>49999970</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>64</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>0.72021925213155102</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>27.9780747868448</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14">
@@ -12079,21 +12080,21 @@
       <c r="G14">
         <v>32</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.59660473091351296</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>40.339526908648601</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>128</v>
       </c>
       <c r="D15">
@@ -12108,21 +12109,21 @@
       <c r="G15">
         <v>16</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0.47427219588355102</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>52.5727804116448</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>84</v>
       </c>
       <c r="D16">
@@ -12137,21 +12138,21 @@
       <c r="G16">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0.35417104833368301</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>64.582895166631602</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>100</v>
       </c>
       <c r="D17">
@@ -12166,21 +12167,21 @@
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>0.23750292000000001</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>76.249707999999998</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>75</v>
       </c>
       <c r="D18">
@@ -12195,22 +12196,15 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>0.12500220250004401</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>87.499779749995596</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
